--- a/inst/results/BMF_computation_PCB_ng_glw/2.BMF_diet_all_PCB_ng_glw.xlsx
+++ b/inst/results/BMF_computation_PCB_ng_glw/2.BMF_diet_all_PCB_ng_glw.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,204 +820,272 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CB28</t>
+          <t>CB187</t>
         </is>
       </c>
       <c r="B14">
-        <v>29.08</v>
+        <v>507.98</v>
       </c>
       <c r="C14">
-        <v>39.44</v>
+        <v>599.96</v>
       </c>
       <c r="D14">
-        <v>57.27</v>
+        <v>656.14</v>
       </c>
       <c r="E14">
-        <v>37.54</v>
+        <v>259.29</v>
       </c>
       <c r="F14">
-        <v>54.7</v>
+        <v>374.96</v>
       </c>
       <c r="G14">
-        <v>75.64</v>
+        <v>744.5700000000001</v>
       </c>
       <c r="H14">
-        <v>0.38</v>
+        <v>0.68</v>
       </c>
       <c r="I14">
-        <v>0.72</v>
+        <v>1.6</v>
       </c>
       <c r="J14">
-        <v>1.53</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CB31</t>
+          <t>CB194</t>
         </is>
       </c>
       <c r="B15">
-        <v>4.47</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="C15">
-        <v>8.68</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="D15">
-        <v>18.47</v>
+        <v>104.4</v>
       </c>
       <c r="E15">
-        <v>19.83</v>
+        <v>53.84</v>
       </c>
       <c r="F15">
-        <v>27.89</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G15">
-        <v>42.04</v>
+        <v>116.23</v>
       </c>
       <c r="H15">
-        <v>0.11</v>
+        <v>0.68</v>
       </c>
       <c r="I15">
-        <v>0.31</v>
+        <v>1.08</v>
       </c>
       <c r="J15">
-        <v>0.93</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CB44</t>
+          <t>CB28</t>
         </is>
       </c>
       <c r="B16">
-        <v>100.46</v>
+        <v>29.08</v>
       </c>
       <c r="C16">
-        <v>138.7</v>
+        <v>39.44</v>
       </c>
       <c r="D16">
-        <v>201.85</v>
+        <v>57.27</v>
       </c>
       <c r="E16">
-        <v>82.63</v>
+        <v>37.54</v>
       </c>
       <c r="F16">
-        <v>103.67</v>
+        <v>54.7</v>
       </c>
       <c r="G16">
-        <v>145.31</v>
+        <v>75.64</v>
       </c>
       <c r="H16">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="I16">
-        <v>1.34</v>
+        <v>0.72</v>
       </c>
       <c r="J16">
-        <v>2.44</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CB49</t>
+          <t>CB31</t>
         </is>
       </c>
       <c r="B17">
-        <v>148.17</v>
+        <v>4.47</v>
       </c>
       <c r="C17">
-        <v>232.11</v>
+        <v>8.68</v>
       </c>
       <c r="D17">
-        <v>283.35</v>
+        <v>18.47</v>
       </c>
       <c r="E17">
-        <v>112.54</v>
+        <v>19.83</v>
       </c>
       <c r="F17">
-        <v>163.12</v>
+        <v>27.89</v>
       </c>
       <c r="G17">
-        <v>201.84</v>
+        <v>42.04</v>
       </c>
       <c r="H17">
-        <v>0.73</v>
+        <v>0.11</v>
       </c>
       <c r="I17">
-        <v>1.42</v>
+        <v>0.31</v>
       </c>
       <c r="J17">
-        <v>2.52</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CB52</t>
+          <t>CB44</t>
         </is>
       </c>
       <c r="B18">
-        <v>276.48</v>
+        <v>100.46</v>
       </c>
       <c r="C18">
-        <v>427.9</v>
+        <v>138.7</v>
       </c>
       <c r="D18">
-        <v>547.14</v>
+        <v>201.85</v>
       </c>
       <c r="E18">
-        <v>205.9</v>
+        <v>82.63</v>
       </c>
       <c r="F18">
-        <v>241.88</v>
+        <v>103.67</v>
       </c>
       <c r="G18">
-        <v>353.21</v>
+        <v>145.31</v>
       </c>
       <c r="H18">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I18">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="J18">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CB49</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>148.17</v>
+      </c>
+      <c r="C19">
+        <v>232.11</v>
+      </c>
+      <c r="D19">
+        <v>283.35</v>
+      </c>
+      <c r="E19">
+        <v>112.54</v>
+      </c>
+      <c r="F19">
+        <v>163.12</v>
+      </c>
+      <c r="G19">
+        <v>201.84</v>
+      </c>
+      <c r="H19">
+        <v>0.73</v>
+      </c>
+      <c r="I19">
+        <v>1.42</v>
+      </c>
+      <c r="J19">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CB52</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>276.48</v>
+      </c>
+      <c r="C20">
+        <v>427.9</v>
+      </c>
+      <c r="D20">
+        <v>547.14</v>
+      </c>
+      <c r="E20">
+        <v>205.9</v>
+      </c>
+      <c r="F20">
+        <v>241.88</v>
+      </c>
+      <c r="G20">
+        <v>353.21</v>
+      </c>
+      <c r="H20">
+        <v>0.78</v>
+      </c>
+      <c r="I20">
+        <v>1.77</v>
+      </c>
+      <c r="J20">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>sumPCB</t>
         </is>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>8654.84</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>11494.79</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>12596.26</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>5224.13</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>6665.92</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>8058.02</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>1.07</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>1.72</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>2.41</v>
       </c>
     </row>
